--- a/02-reportes-scripts/00-acomodaciones/03-valores-perdidos-indices.xlsx
+++ b/02-reportes-scripts/00-acomodaciones/03-valores-perdidos-indices.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t xml:space="preserve">cod_indice</t>
   </si>
@@ -96,12 +96,6 @@
   </si>
   <si>
     <t xml:space="preserve">Percepciones sobre los resultados del uso de la tecnología en el aprendizaje</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOC2SLEC_CODIDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conocimiento didático: Reflexión</t>
   </si>
   <si>
     <t xml:space="preserve">DOC2SCYT_CREEAPR</t>
@@ -789,48 +783,48 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C13" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D13" t="n">
-        <v>90.41</v>
+        <v>92.78</v>
       </c>
       <c r="E13" t="n">
-        <v>9.59</v>
+        <v>7.22</v>
       </c>
       <c r="F13" t="n">
-        <v>8.55</v>
+        <v>4.28</v>
       </c>
       <c r="G13" t="n">
-        <v>1.04</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
         <v>374</v>
       </c>
       <c r="D14" t="n">
-        <v>92.78</v>
+        <v>94.12</v>
       </c>
       <c r="E14" t="n">
-        <v>7.22</v>
+        <v>5.88</v>
       </c>
       <c r="F14" t="n">
-        <v>4.28</v>
+        <v>2.41</v>
       </c>
       <c r="G14" t="n">
-        <v>2.94</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="15">
@@ -844,16 +838,16 @@
         <v>374</v>
       </c>
       <c r="D15" t="n">
-        <v>94.12</v>
+        <v>89.57</v>
       </c>
       <c r="E15" t="n">
-        <v>5.88</v>
+        <v>10.43</v>
       </c>
       <c r="F15" t="n">
-        <v>2.41</v>
+        <v>5.61</v>
       </c>
       <c r="G15" t="n">
-        <v>3.48</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="16">
@@ -867,16 +861,16 @@
         <v>374</v>
       </c>
       <c r="D16" t="n">
-        <v>89.57</v>
+        <v>86.9</v>
       </c>
       <c r="E16" t="n">
-        <v>10.43</v>
+        <v>13.1</v>
       </c>
       <c r="F16" t="n">
-        <v>5.61</v>
+        <v>6.68</v>
       </c>
       <c r="G16" t="n">
-        <v>4.81</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="17">
@@ -890,16 +884,16 @@
         <v>374</v>
       </c>
       <c r="D17" t="n">
-        <v>86.9</v>
+        <v>89.04</v>
       </c>
       <c r="E17" t="n">
-        <v>13.1</v>
+        <v>10.96</v>
       </c>
       <c r="F17" t="n">
-        <v>6.68</v>
+        <v>6.95</v>
       </c>
       <c r="G17" t="n">
-        <v>6.42</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="18">
@@ -913,16 +907,16 @@
         <v>374</v>
       </c>
       <c r="D18" t="n">
-        <v>89.04</v>
+        <v>92.51</v>
       </c>
       <c r="E18" t="n">
-        <v>10.96</v>
+        <v>7.49</v>
       </c>
       <c r="F18" t="n">
-        <v>6.95</v>
+        <v>4.28</v>
       </c>
       <c r="G18" t="n">
-        <v>4.01</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="19">
@@ -933,19 +927,19 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>374</v>
+        <v>15259</v>
       </c>
       <c r="D19" t="n">
-        <v>92.51</v>
+        <v>98.07</v>
       </c>
       <c r="E19" t="n">
-        <v>7.49</v>
+        <v>1.93</v>
       </c>
       <c r="F19" t="n">
-        <v>4.28</v>
+        <v>0.9</v>
       </c>
       <c r="G19" t="n">
-        <v>3.21</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="20">
@@ -956,19 +950,19 @@
         <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>15259</v>
+        <v>15432</v>
       </c>
       <c r="D20" t="n">
-        <v>98.07</v>
+        <v>98.03</v>
       </c>
       <c r="E20" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="G20" t="n">
-        <v>1.03</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="21">
@@ -982,16 +976,16 @@
         <v>15432</v>
       </c>
       <c r="D21" t="n">
-        <v>98.03</v>
+        <v>97.41</v>
       </c>
       <c r="E21" t="n">
-        <v>1.97</v>
+        <v>2.59</v>
       </c>
       <c r="F21" t="n">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="G21" t="n">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="22">
@@ -1011,10 +1005,10 @@
         <v>2.59</v>
       </c>
       <c r="F22" t="n">
-        <v>2.38</v>
+        <v>2.14</v>
       </c>
       <c r="G22" t="n">
-        <v>0.21</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="23">
@@ -1028,16 +1022,16 @@
         <v>15432</v>
       </c>
       <c r="D23" t="n">
-        <v>97.41</v>
+        <v>99.17</v>
       </c>
       <c r="E23" t="n">
-        <v>2.59</v>
+        <v>0.83</v>
       </c>
       <c r="F23" t="n">
-        <v>2.14</v>
+        <v>0.54</v>
       </c>
       <c r="G23" t="n">
-        <v>0.44</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="24">
@@ -1051,16 +1045,16 @@
         <v>15432</v>
       </c>
       <c r="D24" t="n">
-        <v>99.17</v>
+        <v>97.59</v>
       </c>
       <c r="E24" t="n">
-        <v>0.83</v>
+        <v>2.41</v>
       </c>
       <c r="F24" t="n">
-        <v>0.54</v>
+        <v>1.52</v>
       </c>
       <c r="G24" t="n">
-        <v>0.29</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="25">
@@ -1074,16 +1068,16 @@
         <v>15432</v>
       </c>
       <c r="D25" t="n">
-        <v>97.59</v>
+        <v>95.2</v>
       </c>
       <c r="E25" t="n">
-        <v>2.41</v>
+        <v>4.8</v>
       </c>
       <c r="F25" t="n">
-        <v>1.52</v>
+        <v>3.93</v>
       </c>
       <c r="G25" t="n">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="26">
@@ -1097,38 +1091,15 @@
         <v>15432</v>
       </c>
       <c r="D26" t="n">
-        <v>95.2</v>
+        <v>96.9</v>
       </c>
       <c r="E26" t="n">
-        <v>4.8</v>
+        <v>3.1</v>
       </c>
       <c r="F26" t="n">
-        <v>3.93</v>
+        <v>2.2</v>
       </c>
       <c r="G26" t="n">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" t="n">
-        <v>15432</v>
-      </c>
-      <c r="D27" t="n">
-        <v>96.9</v>
-      </c>
-      <c r="E27" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G27" t="n">
         <v>0.89</v>
       </c>
     </row>

--- a/02-reportes-scripts/00-acomodaciones/03-valores-perdidos-indices.xlsx
+++ b/02-reportes-scripts/00-acomodaciones/03-valores-perdidos-indices.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">cod_indice</t>
   </si>
@@ -86,10 +86,7 @@
     <t xml:space="preserve">DOC2SLEC_CLCOAPR</t>
   </si>
   <si>
-    <t xml:space="preserve">Creencias sobre la lectura: Lectura como talento natural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creencias sobre la Lectura como competencia aprendida</t>
+    <t xml:space="preserve">Creencias sobre la lectura</t>
   </si>
   <si>
     <t xml:space="preserve">DOC2SGEN_PERTEC</t>
@@ -132,6 +129,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sentido de pertenencia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EST2SGEN_PRAER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prácticas docentes en la educación remota</t>
   </si>
   <si>
     <t xml:space="preserve">EST2SGEN_ENTOR</t>
@@ -539,13 +542,13 @@
         <v>268</v>
       </c>
       <c r="D2" t="n">
-        <v>96.64</v>
+        <v>98.51</v>
       </c>
       <c r="E2" t="n">
-        <v>3.36</v>
+        <v>1.49</v>
       </c>
       <c r="F2" t="n">
-        <v>3.36</v>
+        <v>1.49</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -737,22 +740,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="n">
         <v>386</v>
       </c>
       <c r="D11" t="n">
-        <v>95.08</v>
+        <v>91.97</v>
       </c>
       <c r="E11" t="n">
-        <v>4.92</v>
+        <v>8.03</v>
       </c>
       <c r="F11" t="n">
-        <v>2.85</v>
+        <v>5.96</v>
       </c>
       <c r="G11" t="n">
         <v>2.07</v>
@@ -760,194 +763,194 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D12" t="n">
-        <v>91.97</v>
+        <v>92.78</v>
       </c>
       <c r="E12" t="n">
-        <v>8.03</v>
+        <v>7.22</v>
       </c>
       <c r="F12" t="n">
-        <v>5.96</v>
+        <v>4.28</v>
       </c>
       <c r="G12" t="n">
-        <v>2.07</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
         <v>374</v>
       </c>
       <c r="D13" t="n">
-        <v>92.78</v>
+        <v>94.12</v>
       </c>
       <c r="E13" t="n">
-        <v>7.22</v>
+        <v>5.88</v>
       </c>
       <c r="F13" t="n">
-        <v>4.28</v>
+        <v>2.41</v>
       </c>
       <c r="G13" t="n">
-        <v>2.94</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="n">
         <v>374</v>
       </c>
       <c r="D14" t="n">
-        <v>94.12</v>
+        <v>89.57</v>
       </c>
       <c r="E14" t="n">
-        <v>5.88</v>
+        <v>10.43</v>
       </c>
       <c r="F14" t="n">
-        <v>2.41</v>
+        <v>5.61</v>
       </c>
       <c r="G14" t="n">
-        <v>3.48</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
         <v>374</v>
       </c>
       <c r="D15" t="n">
-        <v>89.57</v>
+        <v>86.9</v>
       </c>
       <c r="E15" t="n">
-        <v>10.43</v>
+        <v>13.1</v>
       </c>
       <c r="F15" t="n">
-        <v>5.61</v>
+        <v>6.68</v>
       </c>
       <c r="G15" t="n">
-        <v>4.81</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
         <v>374</v>
       </c>
       <c r="D16" t="n">
-        <v>86.9</v>
+        <v>89.04</v>
       </c>
       <c r="E16" t="n">
-        <v>13.1</v>
+        <v>10.96</v>
       </c>
       <c r="F16" t="n">
-        <v>6.68</v>
+        <v>6.95</v>
       </c>
       <c r="G16" t="n">
-        <v>6.42</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C17" t="n">
         <v>374</v>
       </c>
       <c r="D17" t="n">
-        <v>89.04</v>
+        <v>92.51</v>
       </c>
       <c r="E17" t="n">
-        <v>10.96</v>
+        <v>7.49</v>
       </c>
       <c r="F17" t="n">
-        <v>6.95</v>
+        <v>4.28</v>
       </c>
       <c r="G17" t="n">
-        <v>4.01</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>374</v>
+        <v>15259</v>
       </c>
       <c r="D18" t="n">
-        <v>92.51</v>
+        <v>98.07</v>
       </c>
       <c r="E18" t="n">
-        <v>7.49</v>
+        <v>1.93</v>
       </c>
       <c r="F18" t="n">
-        <v>4.28</v>
+        <v>0.9</v>
       </c>
       <c r="G18" t="n">
-        <v>3.21</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>15259</v>
+        <v>15432</v>
       </c>
       <c r="D19" t="n">
-        <v>98.07</v>
+        <v>97.62</v>
       </c>
       <c r="E19" t="n">
-        <v>1.93</v>
+        <v>2.38</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9</v>
+        <v>1.91</v>
       </c>
       <c r="G19" t="n">
-        <v>1.03</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C20" t="n">
         <v>15432</v>
@@ -967,10 +970,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C21" t="n">
         <v>15432</v>
@@ -990,10 +993,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n">
         <v>15432</v>
@@ -1013,10 +1016,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" t="n">
         <v>15432</v>
@@ -1036,10 +1039,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="n">
         <v>15432</v>
@@ -1059,10 +1062,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25" t="n">
         <v>15432</v>
@@ -1082,10 +1085,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C26" t="n">
         <v>15432</v>

--- a/02-reportes-scripts/00-acomodaciones/03-valores-perdidos-indices.xlsx
+++ b/02-reportes-scripts/00-acomodaciones/03-valores-perdidos-indices.xlsx
@@ -769,19 +769,19 @@
         <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D12" t="n">
-        <v>92.78</v>
+        <v>92.6</v>
       </c>
       <c r="E12" t="n">
-        <v>7.22</v>
+        <v>7.4</v>
       </c>
       <c r="F12" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="13">
@@ -792,19 +792,19 @@
         <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D13" t="n">
-        <v>94.12</v>
+        <v>94.25</v>
       </c>
       <c r="E13" t="n">
-        <v>5.88</v>
+        <v>5.75</v>
       </c>
       <c r="F13" t="n">
-        <v>2.41</v>
+        <v>2.47</v>
       </c>
       <c r="G13" t="n">
-        <v>3.48</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="14">
@@ -815,19 +815,19 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D14" t="n">
-        <v>89.57</v>
+        <v>90.14</v>
       </c>
       <c r="E14" t="n">
-        <v>10.43</v>
+        <v>9.86</v>
       </c>
       <c r="F14" t="n">
-        <v>5.61</v>
+        <v>5.21</v>
       </c>
       <c r="G14" t="n">
-        <v>4.81</v>
+        <v>4.66</v>
       </c>
     </row>
     <row r="15">
@@ -838,19 +838,19 @@
         <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D15" t="n">
-        <v>86.9</v>
+        <v>87.12</v>
       </c>
       <c r="E15" t="n">
-        <v>13.1</v>
+        <v>12.88</v>
       </c>
       <c r="F15" t="n">
-        <v>6.68</v>
+        <v>6.58</v>
       </c>
       <c r="G15" t="n">
-        <v>6.42</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="16">
@@ -861,7 +861,7 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D16" t="n">
         <v>89.04</v>
@@ -870,10 +870,10 @@
         <v>10.96</v>
       </c>
       <c r="F16" t="n">
-        <v>6.95</v>
+        <v>7.12</v>
       </c>
       <c r="G16" t="n">
-        <v>4.01</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="17">
@@ -884,19 +884,19 @@
         <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D17" t="n">
-        <v>92.51</v>
+        <v>92.6</v>
       </c>
       <c r="E17" t="n">
-        <v>7.49</v>
+        <v>7.4</v>
       </c>
       <c r="F17" t="n">
-        <v>4.28</v>
+        <v>4.38</v>
       </c>
       <c r="G17" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="18">

--- a/02-reportes-scripts/00-acomodaciones/03-valores-perdidos-indices.xlsx
+++ b/02-reportes-scripts/00-acomodaciones/03-valores-perdidos-indices.xlsx
@@ -101,7 +101,7 @@
     <t xml:space="preserve">Creencias sobre el aprendizaje de la Ciencia</t>
   </si>
   <si>
-    <t xml:space="preserve">DOC2SCYT_CREEEPISTEM</t>
+    <t xml:space="preserve">DOC2SCYT_CREEEPISTE</t>
   </si>
   <si>
     <t xml:space="preserve">Creencias epistemológicas sobre la ciencia</t>
@@ -119,7 +119,7 @@
     <t xml:space="preserve">Autoeficacia docente para el desarrollo de actividades de investigación científica</t>
   </si>
   <si>
-    <t xml:space="preserve">DOC2SCYT_AUTCOMPCRIT</t>
+    <t xml:space="preserve">DOC2SCYT_AUTCOMPCRI</t>
   </si>
   <si>
     <t xml:space="preserve">Autoeficacia docente para el desarrollo de la competencia de posición crítica</t>

--- a/02-reportes-scripts/00-acomodaciones/03-valores-perdidos-indices.xlsx
+++ b/02-reportes-scripts/00-acomodaciones/03-valores-perdidos-indices.xlsx
@@ -769,19 +769,19 @@
         <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>365</v>
+        <v>6016</v>
       </c>
       <c r="D12" t="n">
-        <v>92.6</v>
+        <v>67.2</v>
       </c>
       <c r="E12" t="n">
-        <v>7.4</v>
+        <v>32.8</v>
       </c>
       <c r="F12" t="n">
-        <v>4.38</v>
+        <v>1.28</v>
       </c>
       <c r="G12" t="n">
-        <v>3.01</v>
+        <v>31.52</v>
       </c>
     </row>
     <row r="13">
@@ -792,19 +792,19 @@
         <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>365</v>
+        <v>6016</v>
       </c>
       <c r="D13" t="n">
-        <v>94.25</v>
+        <v>66.36</v>
       </c>
       <c r="E13" t="n">
-        <v>5.75</v>
+        <v>33.64</v>
       </c>
       <c r="F13" t="n">
-        <v>2.47</v>
+        <v>1.63</v>
       </c>
       <c r="G13" t="n">
-        <v>3.29</v>
+        <v>32.01</v>
       </c>
     </row>
     <row r="14">
@@ -815,19 +815,19 @@
         <v>30</v>
       </c>
       <c r="C14" t="n">
-        <v>365</v>
+        <v>6016</v>
       </c>
       <c r="D14" t="n">
-        <v>90.14</v>
+        <v>65.39</v>
       </c>
       <c r="E14" t="n">
-        <v>9.86</v>
+        <v>34.61</v>
       </c>
       <c r="F14" t="n">
-        <v>5.21</v>
+        <v>2.33</v>
       </c>
       <c r="G14" t="n">
-        <v>4.66</v>
+        <v>32.28</v>
       </c>
     </row>
     <row r="15">
@@ -838,19 +838,19 @@
         <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>365</v>
+        <v>6016</v>
       </c>
       <c r="D15" t="n">
-        <v>87.12</v>
+        <v>64.18</v>
       </c>
       <c r="E15" t="n">
-        <v>12.88</v>
+        <v>35.82</v>
       </c>
       <c r="F15" t="n">
-        <v>6.58</v>
+        <v>3.41</v>
       </c>
       <c r="G15" t="n">
-        <v>6.3</v>
+        <v>32.41</v>
       </c>
     </row>
     <row r="16">
@@ -861,19 +861,19 @@
         <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>365</v>
+        <v>6016</v>
       </c>
       <c r="D16" t="n">
-        <v>89.04</v>
+        <v>64.48</v>
       </c>
       <c r="E16" t="n">
-        <v>10.96</v>
+        <v>35.52</v>
       </c>
       <c r="F16" t="n">
-        <v>7.12</v>
+        <v>3.56</v>
       </c>
       <c r="G16" t="n">
-        <v>3.84</v>
+        <v>31.96</v>
       </c>
     </row>
     <row r="17">
@@ -884,19 +884,19 @@
         <v>36</v>
       </c>
       <c r="C17" t="n">
-        <v>365</v>
+        <v>6016</v>
       </c>
       <c r="D17" t="n">
-        <v>92.6</v>
+        <v>66.22</v>
       </c>
       <c r="E17" t="n">
-        <v>7.4</v>
+        <v>33.78</v>
       </c>
       <c r="F17" t="n">
-        <v>4.38</v>
+        <v>1.96</v>
       </c>
       <c r="G17" t="n">
-        <v>3.01</v>
+        <v>31.82</v>
       </c>
     </row>
     <row r="18">
@@ -907,19 +907,19 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>15259</v>
+        <v>89612</v>
       </c>
       <c r="D18" t="n">
-        <v>98.07</v>
+        <v>92.15</v>
       </c>
       <c r="E18" t="n">
-        <v>1.93</v>
+        <v>7.85</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9</v>
+        <v>1.25</v>
       </c>
       <c r="G18" t="n">
-        <v>1.03</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="19">
@@ -930,19 +930,19 @@
         <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>15432</v>
+        <v>88968</v>
       </c>
       <c r="D19" t="n">
-        <v>97.62</v>
+        <v>91.68</v>
       </c>
       <c r="E19" t="n">
-        <v>2.38</v>
+        <v>8.32</v>
       </c>
       <c r="F19" t="n">
-        <v>1.91</v>
+        <v>2.34</v>
       </c>
       <c r="G19" t="n">
-        <v>0.47</v>
+        <v>5.98</v>
       </c>
     </row>
     <row r="20">
@@ -953,19 +953,19 @@
         <v>42</v>
       </c>
       <c r="C20" t="n">
-        <v>15432</v>
+        <v>88968</v>
       </c>
       <c r="D20" t="n">
-        <v>98.03</v>
+        <v>92.29</v>
       </c>
       <c r="E20" t="n">
-        <v>1.97</v>
+        <v>7.71</v>
       </c>
       <c r="F20" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="G20" t="n">
-        <v>0.37</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="21">
@@ -976,19 +976,19 @@
         <v>44</v>
       </c>
       <c r="C21" t="n">
-        <v>15432</v>
+        <v>88968</v>
       </c>
       <c r="D21" t="n">
-        <v>97.41</v>
+        <v>91.18</v>
       </c>
       <c r="E21" t="n">
-        <v>2.59</v>
+        <v>8.82</v>
       </c>
       <c r="F21" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="G21" t="n">
-        <v>0.21</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="22">
@@ -999,19 +999,19 @@
         <v>46</v>
       </c>
       <c r="C22" t="n">
-        <v>15432</v>
+        <v>88968</v>
       </c>
       <c r="D22" t="n">
-        <v>97.41</v>
+        <v>91.78</v>
       </c>
       <c r="E22" t="n">
-        <v>2.59</v>
+        <v>8.22</v>
       </c>
       <c r="F22" t="n">
-        <v>2.14</v>
+        <v>2.41</v>
       </c>
       <c r="G22" t="n">
-        <v>0.44</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="23">
@@ -1022,19 +1022,19 @@
         <v>48</v>
       </c>
       <c r="C23" t="n">
-        <v>15432</v>
+        <v>88968</v>
       </c>
       <c r="D23" t="n">
-        <v>99.17</v>
+        <v>93.67</v>
       </c>
       <c r="E23" t="n">
-        <v>0.83</v>
+        <v>6.33</v>
       </c>
       <c r="F23" t="n">
-        <v>0.54</v>
+        <v>0.74</v>
       </c>
       <c r="G23" t="n">
-        <v>0.29</v>
+        <v>5.59</v>
       </c>
     </row>
     <row r="24">
@@ -1045,19 +1045,19 @@
         <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>15432</v>
+        <v>88968</v>
       </c>
       <c r="D24" t="n">
-        <v>97.59</v>
+        <v>91.63</v>
       </c>
       <c r="E24" t="n">
-        <v>2.41</v>
+        <v>8.37</v>
       </c>
       <c r="F24" t="n">
-        <v>1.52</v>
+        <v>2.07</v>
       </c>
       <c r="G24" t="n">
-        <v>0.89</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="25">
@@ -1068,19 +1068,19 @@
         <v>52</v>
       </c>
       <c r="C25" t="n">
-        <v>15432</v>
+        <v>88968</v>
       </c>
       <c r="D25" t="n">
-        <v>95.2</v>
+        <v>88.41</v>
       </c>
       <c r="E25" t="n">
-        <v>4.8</v>
+        <v>11.59</v>
       </c>
       <c r="F25" t="n">
-        <v>3.93</v>
+        <v>5.12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.87</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="26">
@@ -1091,19 +1091,19 @@
         <v>54</v>
       </c>
       <c r="C26" t="n">
-        <v>15432</v>
+        <v>88968</v>
       </c>
       <c r="D26" t="n">
-        <v>96.9</v>
+        <v>90.74</v>
       </c>
       <c r="E26" t="n">
-        <v>3.1</v>
+        <v>9.26</v>
       </c>
       <c r="F26" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="G26" t="n">
-        <v>0.89</v>
+        <v>6.46</v>
       </c>
     </row>
   </sheetData>
